--- a/utils/家政小程序接口(2).xlsx
+++ b/utils/家政小程序接口(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="10425"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 小程序接口文档" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>小程序接口文档</t>
   </si>
   <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>http://mall.xinwenyifuxing.com/mallapp</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
@@ -46,6 +52,65 @@
     <t>/app/weixinlogin</t>
   </si>
   <si>
+    <r>
+      <t>微信：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">code
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">iv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>encryptedData</t>
+    </r>
+  </si>
+  <si>
+    <t>轮播图</t>
+  </si>
+  <si>
+    <t>首页轮播图</t>
+  </si>
+  <si>
+    <t>/app/banner/list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ban_img </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -53,7 +118,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>微信：</t>
+      <t>图片地址</t>
     </r>
     <r>
       <rPr>
@@ -62,8 +127,31 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">code
-</t>
+      <t xml:space="preserve"> string
+banner_id  id string</t>
+    </r>
+  </si>
+  <si>
+    <t>家政服务列表</t>
+  </si>
+  <si>
+    <t>套餐id,套餐名称，价格，服务周期，服务图片列表展示。</t>
+  </si>
+  <si>
+    <t>/app/goods/list</t>
+  </si>
+  <si>
+    <r>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID : category_id 1</t>
     </r>
     <r>
       <rPr>
@@ -72,7 +160,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>微信：</t>
+      <t>代表第一个</t>
     </r>
     <r>
       <rPr>
@@ -81,8 +169,7 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">iv
-</t>
+      <t xml:space="preserve"> 2</t>
     </r>
     <r>
       <rPr>
@@ -91,7 +178,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>微信：</t>
+      <t>代表第二个</t>
     </r>
     <r>
       <rPr>
@@ -100,32 +187,8 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>encryptedData</t>
-    </r>
-  </si>
-  <si>
-    <t>轮播图</t>
-  </si>
-  <si>
-    <t>首页轮播图</t>
-  </si>
-  <si>
-    <t>/app/banner/list</t>
-  </si>
-  <si>
-    <t>ban_img 图片地址 string
-banner_id  id string</t>
-  </si>
-  <si>
-    <t>家政服务列表</t>
-  </si>
-  <si>
-    <t>套餐id,套餐名称，价格，服务周期，服务图片列表展示。</t>
-  </si>
-  <si>
-    <t>/app/goods/list</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> 3</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -133,16 +196,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID : category_id 1代表第一个 2代表第二个 3代表第三个</t>
+      <t>代表第三个</t>
     </r>
   </si>
   <si>
@@ -554,14 +608,52 @@
 验证码:code</t>
   </si>
   <si>
-    <t>{
+    <r>
+      <t>{
   "result": 1,
-  "message": "绑定成功！"
+  "message": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绑定成功！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"
 }
 {
   "result": -1,
-  "message": "验证码错误！"
+  "message": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"
 }</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -569,12 +661,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -582,10 +674,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -602,17 +714,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,38 +779,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,6 +807,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -684,15 +829,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,24 +845,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,32 +860,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -786,7 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,13 +930,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,19 +960,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +1014,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +1062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,83 +1092,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1113,17 +1248,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,17 +1262,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,11 +1281,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,6 +1307,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,9 +1337,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,237 +1350,270 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2615,542 +2783,809 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX29"/>
+  <dimension ref="A1:IX30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="5" width="51" style="1" customWidth="1"/>
-    <col min="6" max="258" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.7142857142857" style="2" customWidth="1"/>
+    <col min="3" max="5" width="51" style="2" customWidth="1"/>
+    <col min="6" max="258" width="16.2857142857143" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.95" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="30.95" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" ht="42" customHeight="1" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" ht="44.1" customHeight="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="42" customHeight="1" spans="1:258">
       <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39"/>
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39"/>
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39"/>
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39"/>
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39"/>
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39"/>
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39"/>
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39"/>
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39"/>
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39"/>
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39"/>
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39"/>
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39"/>
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39"/>
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="39"/>
+      <c r="IU4" s="39"/>
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+    </row>
+    <row r="5" ht="44.1" customHeight="1" spans="1:10">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
-    <row r="5" ht="96" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="16" t="s">
+    <row r="6" ht="96" customHeight="1" spans="1:10">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="D6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
-    <row r="6" ht="158.1" customHeight="1" spans="1:10">
-      <c r="A6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="16" t="s">
+    <row r="7" ht="158.1" customHeight="1" spans="1:10">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="D7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
-    <row r="7" ht="72" spans="1:10">
-      <c r="A7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="16" t="s">
+    <row r="8" ht="72" spans="1:10">
+      <c r="A8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="B8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" ht="122.1" customHeight="1" spans="1:10">
-      <c r="A8" s="22" t="s">
+      <c r="D8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="E8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" ht="122.1" customHeight="1" spans="1:10">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" ht="122.1" customHeight="1" spans="1:10">
+      <c r="A10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="B10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
-    <row r="10" ht="129" customHeight="1" spans="1:10">
-      <c r="A10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="16" t="s">
+    <row r="11" ht="129" customHeight="1" spans="1:10">
+      <c r="A11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" ht="110.1" customHeight="1" spans="1:10">
-      <c r="A11" s="14" t="s">
+      <c r="C11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="D11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="E11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" ht="110.1" customHeight="1" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="E12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" ht="110.1" customHeight="1" spans="1:10">
+      <c r="A13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="B13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="C13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="D13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
-    <row r="13" ht="54" customHeight="1" spans="1:10">
-      <c r="A13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+    <row r="14" ht="54" customHeight="1" spans="1:10">
+      <c r="A14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
-    <row r="14" ht="168.95" customHeight="1" spans="1:10">
-      <c r="A14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="16" t="s">
+    <row r="15" ht="168.95" customHeight="1" spans="1:10">
+      <c r="A15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="C15" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="D15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
-    <row r="15" ht="22.35" customHeight="1" spans="1:10">
-      <c r="A15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="16" t="s">
+    <row r="16" ht="22.35" customHeight="1" spans="1:10">
+      <c r="A16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="C16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
-    <row r="16" ht="51" spans="1:10">
-      <c r="A16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="16" t="s">
+    <row r="17" ht="51" spans="1:10">
+      <c r="A17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="B17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="C17" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="D17" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
-    <row r="17" ht="35.45" customHeight="1" spans="1:10">
-      <c r="A17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="16" t="s">
+    <row r="18" ht="35.45" customHeight="1" spans="1:10">
+      <c r="A18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="B18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="C18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
-    <row r="18" ht="80.1" customHeight="1" spans="1:258">
-      <c r="A18" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="16" t="s">
+    <row r="19" ht="80.1" customHeight="1" spans="1:258">
+      <c r="A19" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="B19" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="C19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="IX18"/>
-    </row>
-    <row r="19" ht="93.95" customHeight="1" spans="1:258">
-      <c r="A19" s="25" t="s">
+      <c r="D19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="E19" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="IX19"/>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+    <row r="20" ht="93.95" customHeight="1" spans="1:258">
+      <c r="A20" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="IX20"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://mall.xinwenyifuxing.com/mallapp"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>

--- a/utils/家政小程序接口(2).xlsx
+++ b/utils/家政小程序接口(2).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shortcuts\suBai\utils\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30794028-6072-4FA3-BE12-B29882CB8F37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 小程序接口文档" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>小程序接口文档</t>
   </si>
@@ -28,6 +22,9 @@
     <t>域名</t>
   </si>
   <si>
+    <t>http://mall.xinwenyifuxing.com/mallapp</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
@@ -62,7 +59,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">code
 </t>
@@ -71,7 +68,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>微信：</t>
@@ -80,7 +76,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">iv
 </t>
@@ -89,7 +85,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>微信：</t>
@@ -98,7 +93,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>encryptedData</t>
     </r>
@@ -114,6 +109,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ban_img </t>
     </r>
     <r>
@@ -121,7 +122,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片地址</t>
@@ -131,7 +131,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> string
 banner_id  id string</t>
@@ -141,13 +141,39 @@
     <t>家政服务列表</t>
   </si>
   <si>
-    <t>套餐id,套餐名称，价格，服务周期，服务图片列表展示。</t>
+    <r>
+      <t>套餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套餐名称，价格，服务周期，服务图片列表展示。</t>
+    </r>
   </si>
   <si>
     <t>/app/goods/list</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>类型</t>
     </r>
     <r>
@@ -155,7 +181,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID : category_id 1</t>
     </r>
@@ -164,7 +190,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>代表第一个</t>
@@ -174,7 +199,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -183,7 +208,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>代表第二个</t>
@@ -193,7 +217,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -202,7 +226,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>代表第三个</t>
@@ -216,53 +239,50 @@
 goods_id  商品id string</t>
   </si>
   <si>
+    <t>家政服务详情</t>
+  </si>
+  <si>
+    <r>
+      <t>套餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套餐</t>
+        <charset val="134"/>
+      </rPr>
+      <t>套餐名称，价格，服务周期，服务图片等</t>
+    </r>
+  </si>
+  <si>
+    <t>/app/goods/info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>id,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套餐名称，价格，服务周期，服务图片等</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID : goods_id</t>
     </r>
@@ -276,6 +296,9 @@
   </si>
   <si>
     <t>添加服务地址</t>
+  </si>
+  <si>
+    <t>联系人，手机号，服务地址，服务详细地址，服务面积。</t>
   </si>
   <si>
     <t>/app/address/add</t>
@@ -293,6 +316,9 @@
   </si>
   <si>
     <t>服务地址列表</t>
+  </si>
+  <si>
+    <t>包含姓名，地址，手机号，是否是默认地址</t>
   </si>
   <si>
     <t>/app/address/list</t>
@@ -307,6 +333,36 @@
 is_default 是否是默认地址 string</t>
   </si>
   <si>
+    <t>服务时间列表</t>
+  </si>
+  <si>
+    <t>/servicetimeList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">服务日期 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_day (例如 2018-12-20)</t>
+    </r>
+  </si>
+  <si>
     <t>更改默认地址</t>
   </si>
   <si>
@@ -321,7 +377,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系人：</t>
@@ -331,7 +386,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ADDR_REALNAME 
 </t>
@@ -341,7 +396,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>手机号码：</t>
@@ -351,7 +405,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ADDR_PHONE
 </t>
@@ -361,7 +415,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务地址：</t>
@@ -371,7 +424,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ADDR_CITY
 </t>
@@ -381,7 +434,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>详细地址：</t>
@@ -391,7 +443,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ADDRESS
 </t>
@@ -401,7 +453,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务面积：</t>
@@ -411,7 +462,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ADDR_AREA
 </t>
@@ -421,7 +472,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是否默认地址：</t>
@@ -431,7 +481,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>IS_DEFAULT
 服务地址id：ADDRESS_ID （必填，其他非必填）</t>
@@ -466,229 +516,38 @@
     <t>下单</t>
   </si>
   <si>
-    <t>微信支付购买服务</t>
-  </si>
-  <si>
-    <t>用户订单列表</t>
-  </si>
-  <si>
-    <t>addr_phone  订单电话
-order_total 订单实付
-goods_id 服务id
-order_id 订单id
-goods_name 商品名字
-service_time 服务时间
-goods_pic 商品图片
-service_count 服务次数，大于0代表是多次服务
-addr_realname 地址姓名
-coupon_price 优惠的金额
-status 0默认待付款状态 1已付款(服务中) 2已完成 3已取消</t>
-  </si>
-  <si>
-    <t>已付款订单，服务记录列表</t>
-  </si>
-  <si>
-    <t>包含第几次服务，完成状态，完成时间。</t>
-  </si>
-  <si>
-    <t>/orderdetaillist</t>
-  </si>
-  <si>
-    <t>订单id:order_id</t>
-  </si>
-  <si>
-    <t>取消订单</t>
-  </si>
-  <si>
-    <t>未完成付款的订单，可取消订单（加上取消订单理由，取消订单列表理由在前端可写死，方便开发。）</t>
-  </si>
-  <si>
-    <t>/order/status</t>
-  </si>
-  <si>
-    <t>状态:status 0待付款 1已付款 2完成 3取消 
-备注:remark 
-订单id:order_id</t>
-  </si>
-  <si>
-    <t>{
-  "result": 1,
-  "message": "提交成功"
-}</t>
-  </si>
-  <si>
-    <t>用户信息</t>
-  </si>
-  <si>
-    <t>头像，用户名，客服热线。</t>
-  </si>
-  <si>
-    <t>/app/getUser</t>
-  </si>
-  <si>
-    <t>用户id:user_id
-openid:openid</t>
-  </si>
-  <si>
-    <t>获取验证码</t>
-  </si>
-  <si>
-    <t>绑定手机号获取验证码</t>
-  </si>
-  <si>
-    <t>/app/getcode</t>
-  </si>
-  <si>
-    <t>手机号:phone</t>
-  </si>
-  <si>
-    <t>{
-  "result": 1,
-  "message": "发送成功！"
-}
-{
-  "result": -1,
-  "message": "发送失败！"
-}</t>
-  </si>
-  <si>
-    <t>绑定手机号</t>
-  </si>
-  <si>
-    <t>/app/bindphone</t>
-  </si>
-  <si>
-    <t>手机号:phone, 
-验证码:code</t>
-  </si>
-  <si>
-    <r>
-      <t>{
-  "result": 1,
-  "message": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绑定成功！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
-}
-{
-  "result": -1,
-  "message": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证码错误！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
-}</t>
-    </r>
-  </si>
-  <si>
-    <t>/orderlist</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表包含最基本的订单名称，订单状态，下单人员名称，服务金额，实际付款金额，下单时间，付款时间，订单编号，完成时间等等订单详情</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mall.xinwenyifuxing.com/mallapp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询订单列表不需要传参
-查询订单详情时传订单</t>
+        <charset val="134"/>
+      </rPr>
+      <t>服务下单接口</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id : order_id</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务下单接口</t>
+        <charset val="134"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <t>/addorder</t>
+  </si>
+  <si>
+    <r>
+      <t>商品</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addorder</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">id goods_id  string
 coupon_id </t>
@@ -698,7 +557,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>优惠券</t>
@@ -708,7 +566,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">id string
 address_id </t>
@@ -718,7 +576,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>地址</t>
@@ -728,7 +585,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">id string
 service_time </t>
@@ -738,7 +595,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>服务时间</t>
@@ -748,7 +604,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 2018-11-15 12:30:00 string
 servicetime_id  </t>
@@ -758,7 +614,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>调用服务时间列表返回的</t>
@@ -768,14 +623,19 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
     "return_pay": {
         "timeStamp": "1545307852",
@@ -795,7 +655,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>测试</t>
@@ -805,7 +664,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -814,7 +673,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的商品服务</t>
@@ -824,7 +682,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>",
     "openid": "oQxxd5TxGuNUwlnDTjeoLYr_ZUNk",
@@ -836,7 +694,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提交成功！</t>
@@ -846,71 +703,213 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>",
     "order_id": "1545307851858"
 }</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">服务日期 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+  </si>
+  <si>
+    <t>微信支付购买服务</t>
+  </si>
+  <si>
+    <t>用户订单列表</t>
+  </si>
+  <si>
+    <t>列表包含最基本的订单名称，订单状态，下单人员名称，服务金额，实际付款金额，下单时间，付款时间，订单编号，完成时间等等订单详情</t>
+  </si>
+  <si>
+    <t>/orderlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询订单列表不需要传参
+查询订单详情时传订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id : order_id</t>
+    </r>
+  </si>
+  <si>
+    <t>addr_phone  订单电话
+order_total 订单实付
+goods_id 服务id
+order_id 订单id
+goods_name 商品名字
+service_time 服务时间
+goods_pic 商品图片
+service_count 服务次数，大于0代表是多次服务
+addr_realname 地址姓名
+coupon_price 优惠的金额
+status 0默认待付款状态 1已付款(服务中) 2已完成 3已取消</t>
+  </si>
+  <si>
+    <t>已付款订单，服务记录列表</t>
+  </si>
+  <si>
+    <t>包含第几次服务，完成状态，完成时间。</t>
+  </si>
+  <si>
+    <t>/orderdetaillist</t>
+  </si>
+  <si>
+    <t>订单id:order_id</t>
+  </si>
+  <si>
+    <t>取消订单</t>
+  </si>
+  <si>
+    <t>未完成付款的订单，可取消订单（加上取消订单理由，取消订单列表理由在前端可写死，方便开发。）</t>
+  </si>
+  <si>
+    <t>/order/status</t>
+  </si>
+  <si>
+    <t>状态:status 0待付款 1已付款 2完成 3取消 
+备注:remark 
+订单id:order_id</t>
+  </si>
+  <si>
+    <t>{
+  "result": 1,
+  "message": "提交成功"
+}</t>
+  </si>
+  <si>
+    <t>用户信息</t>
+  </si>
+  <si>
+    <t>头像，用户名，客服热线。</t>
+  </si>
+  <si>
+    <t>/app/getUser</t>
+  </si>
+  <si>
+    <r>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id:user_id
+openid:openid</t>
+    </r>
+  </si>
+  <si>
+    <t>获取验证码</t>
+  </si>
+  <si>
+    <t>绑定手机号获取验证码</t>
+  </si>
+  <si>
+    <t>/app/getcode</t>
+  </si>
+  <si>
+    <t>手机号:phone</t>
+  </si>
+  <si>
+    <t>{
+  "result": 1,
+  "message": "发送成功！"
+}
+{
+  "result": -1,
+  "message": "发送失败！"
+}</t>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
+    <t>/app/bindphone</t>
+  </si>
+  <si>
+    <t>手机号:phone, 
+验证码:code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{
+  "result": 1,
+  "message": "</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>service</t>
+        <charset val="134"/>
+      </rPr>
+      <t>绑定成功！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"
+}
+{
+  "result": -1,
+  "message": "</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_day (例如 2018-12-20)</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>/servicetimeList</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务时间列表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>/app/goods/info</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>家政服务详情</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人，手机号，服务地址，服务详细地址，服务面积。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含姓名，地址，手机号，是否是默认地址</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证码错误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -921,110 +920,274 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="0.399975585192419"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="0.39997558519241921"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1032,19 +1195,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,8 +1223,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1214,16 +1560,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1233,13 +1818,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,42 +1881,72 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1335,39 +1956,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -1440,9 +2080,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2478,820 +3115,819 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IX30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.7142857142857" style="2" customWidth="1"/>
     <col min="3" max="5" width="51" style="2" customWidth="1"/>
-    <col min="6" max="258" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="258" width="16.2857142857143" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="30.95" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" ht="30.95" customHeight="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:258" ht="30.95" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="30.95" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="42" customHeight="1" spans="1:258">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48"/>
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48"/>
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48"/>
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48"/>
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48"/>
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48"/>
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48"/>
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48"/>
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48"/>
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48"/>
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48"/>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
+      <c r="ED4" s="48"/>
+      <c r="EE4" s="48"/>
+      <c r="EF4" s="48"/>
+      <c r="EG4" s="48"/>
+      <c r="EH4" s="48"/>
+      <c r="EI4" s="48"/>
+      <c r="EJ4" s="48"/>
+      <c r="EK4" s="48"/>
+      <c r="EL4" s="48"/>
+      <c r="EM4" s="48"/>
+      <c r="EN4" s="48"/>
+      <c r="EO4" s="48"/>
+      <c r="EP4" s="48"/>
+      <c r="EQ4" s="48"/>
+      <c r="ER4" s="48"/>
+      <c r="ES4" s="48"/>
+      <c r="ET4" s="48"/>
+      <c r="EU4" s="48"/>
+      <c r="EV4" s="48"/>
+      <c r="EW4" s="48"/>
+      <c r="EX4" s="48"/>
+      <c r="EY4" s="48"/>
+      <c r="EZ4" s="48"/>
+      <c r="FA4" s="48"/>
+      <c r="FB4" s="48"/>
+      <c r="FC4" s="48"/>
+      <c r="FD4" s="48"/>
+      <c r="FE4" s="48"/>
+      <c r="FF4" s="48"/>
+      <c r="FG4" s="48"/>
+      <c r="FH4" s="48"/>
+      <c r="FI4" s="48"/>
+      <c r="FJ4" s="48"/>
+      <c r="FK4" s="48"/>
+      <c r="FL4" s="48"/>
+      <c r="FM4" s="48"/>
+      <c r="FN4" s="48"/>
+      <c r="FO4" s="48"/>
+      <c r="FP4" s="48"/>
+      <c r="FQ4" s="48"/>
+      <c r="FR4" s="48"/>
+      <c r="FS4" s="48"/>
+      <c r="FT4" s="48"/>
+      <c r="FU4" s="48"/>
+      <c r="FV4" s="48"/>
+      <c r="FW4" s="48"/>
+      <c r="FX4" s="48"/>
+      <c r="FY4" s="48"/>
+      <c r="FZ4" s="48"/>
+      <c r="GA4" s="48"/>
+      <c r="GB4" s="48"/>
+      <c r="GC4" s="48"/>
+      <c r="GD4" s="48"/>
+      <c r="GE4" s="48"/>
+      <c r="GF4" s="48"/>
+      <c r="GG4" s="48"/>
+      <c r="GH4" s="48"/>
+      <c r="GI4" s="48"/>
+      <c r="GJ4" s="48"/>
+      <c r="GK4" s="48"/>
+      <c r="GL4" s="48"/>
+      <c r="GM4" s="48"/>
+      <c r="GN4" s="48"/>
+      <c r="GO4" s="48"/>
+      <c r="GP4" s="48"/>
+      <c r="GQ4" s="48"/>
+      <c r="GR4" s="48"/>
+      <c r="GS4" s="48"/>
+      <c r="GT4" s="48"/>
+      <c r="GU4" s="48"/>
+      <c r="GV4" s="48"/>
+      <c r="GW4" s="48"/>
+      <c r="GX4" s="48"/>
+      <c r="GY4" s="48"/>
+      <c r="GZ4" s="48"/>
+      <c r="HA4" s="48"/>
+      <c r="HB4" s="48"/>
+      <c r="HC4" s="48"/>
+      <c r="HD4" s="48"/>
+      <c r="HE4" s="48"/>
+      <c r="HF4" s="48"/>
+      <c r="HG4" s="48"/>
+      <c r="HH4" s="48"/>
+      <c r="HI4" s="48"/>
+      <c r="HJ4" s="48"/>
+      <c r="HK4" s="48"/>
+      <c r="HL4" s="48"/>
+      <c r="HM4" s="48"/>
+      <c r="HN4" s="48"/>
+      <c r="HO4" s="48"/>
+      <c r="HP4" s="48"/>
+      <c r="HQ4" s="48"/>
+      <c r="HR4" s="48"/>
+      <c r="HS4" s="48"/>
+      <c r="HT4" s="48"/>
+      <c r="HU4" s="48"/>
+      <c r="HV4" s="48"/>
+      <c r="HW4" s="48"/>
+      <c r="HX4" s="48"/>
+      <c r="HY4" s="48"/>
+      <c r="HZ4" s="48"/>
+      <c r="IA4" s="48"/>
+      <c r="IB4" s="48"/>
+      <c r="IC4" s="48"/>
+      <c r="ID4" s="48"/>
+      <c r="IE4" s="48"/>
+      <c r="IF4" s="48"/>
+      <c r="IG4" s="48"/>
+      <c r="IH4" s="48"/>
+      <c r="II4" s="48"/>
+      <c r="IJ4" s="48"/>
+      <c r="IK4" s="48"/>
+      <c r="IL4" s="48"/>
+      <c r="IM4" s="48"/>
+      <c r="IN4" s="48"/>
+      <c r="IO4" s="48"/>
+      <c r="IP4" s="48"/>
+      <c r="IQ4" s="48"/>
+      <c r="IR4" s="48"/>
+      <c r="IS4" s="48"/>
+      <c r="IT4" s="48"/>
+      <c r="IU4" s="48"/>
+      <c r="IV4" s="48"/>
+      <c r="IW4" s="48"/>
+      <c r="IX4" s="48"/>
+    </row>
+    <row r="5" ht="44.1" customHeight="1" spans="1:10">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" ht="96" customHeight="1" spans="1:10">
+      <c r="A6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" ht="158.1" customHeight="1" spans="1:10">
+      <c r="A7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" ht="72" spans="1:10">
+      <c r="A8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" ht="122.1" customHeight="1" spans="1:10">
+      <c r="A9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" ht="122.1" customHeight="1" spans="1:10">
+      <c r="A10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" ht="129" customHeight="1" spans="1:10">
+      <c r="A11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" ht="110.1" customHeight="1" spans="1:10">
+      <c r="A12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" ht="168" customHeight="1" spans="1:10">
+      <c r="A13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" ht="54" customHeight="1" spans="1:10">
+      <c r="A14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" ht="168.95" customHeight="1" spans="1:10">
+      <c r="A15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" ht="22.35" customHeight="1" spans="1:10">
+      <c r="A16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" ht="51" spans="1:10">
+      <c r="A17" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" ht="35.45" customHeight="1" spans="1:10">
+      <c r="A18" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B18" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
-    <row r="3" spans="1:258" ht="22.5" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:258" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36"/>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36"/>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36"/>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="36"/>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36"/>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
-      <c r="DD4" s="36"/>
-      <c r="DE4" s="36"/>
-      <c r="DF4" s="36"/>
-      <c r="DG4" s="36"/>
-      <c r="DH4" s="36"/>
-      <c r="DI4" s="36"/>
-      <c r="DJ4" s="36"/>
-      <c r="DK4" s="36"/>
-      <c r="DL4" s="36"/>
-      <c r="DM4" s="36"/>
-      <c r="DN4" s="36"/>
-      <c r="DO4" s="36"/>
-      <c r="DP4" s="36"/>
-      <c r="DQ4" s="36"/>
-      <c r="DR4" s="36"/>
-      <c r="DS4" s="36"/>
-      <c r="DT4" s="36"/>
-      <c r="DU4" s="36"/>
-      <c r="DV4" s="36"/>
-      <c r="DW4" s="36"/>
-      <c r="DX4" s="36"/>
-      <c r="DY4" s="36"/>
-      <c r="DZ4" s="36"/>
-      <c r="EA4" s="36"/>
-      <c r="EB4" s="36"/>
-      <c r="EC4" s="36"/>
-      <c r="ED4" s="36"/>
-      <c r="EE4" s="36"/>
-      <c r="EF4" s="36"/>
-      <c r="EG4" s="36"/>
-      <c r="EH4" s="36"/>
-      <c r="EI4" s="36"/>
-      <c r="EJ4" s="36"/>
-      <c r="EK4" s="36"/>
-      <c r="EL4" s="36"/>
-      <c r="EM4" s="36"/>
-      <c r="EN4" s="36"/>
-      <c r="EO4" s="36"/>
-      <c r="EP4" s="36"/>
-      <c r="EQ4" s="36"/>
-      <c r="ER4" s="36"/>
-      <c r="ES4" s="36"/>
-      <c r="ET4" s="36"/>
-      <c r="EU4" s="36"/>
-      <c r="EV4" s="36"/>
-      <c r="EW4" s="36"/>
-      <c r="EX4" s="36"/>
-      <c r="EY4" s="36"/>
-      <c r="EZ4" s="36"/>
-      <c r="FA4" s="36"/>
-      <c r="FB4" s="36"/>
-      <c r="FC4" s="36"/>
-      <c r="FD4" s="36"/>
-      <c r="FE4" s="36"/>
-      <c r="FF4" s="36"/>
-      <c r="FG4" s="36"/>
-      <c r="FH4" s="36"/>
-      <c r="FI4" s="36"/>
-      <c r="FJ4" s="36"/>
-      <c r="FK4" s="36"/>
-      <c r="FL4" s="36"/>
-      <c r="FM4" s="36"/>
-      <c r="FN4" s="36"/>
-      <c r="FO4" s="36"/>
-      <c r="FP4" s="36"/>
-      <c r="FQ4" s="36"/>
-      <c r="FR4" s="36"/>
-      <c r="FS4" s="36"/>
-      <c r="FT4" s="36"/>
-      <c r="FU4" s="36"/>
-      <c r="FV4" s="36"/>
-      <c r="FW4" s="36"/>
-      <c r="FX4" s="36"/>
-      <c r="FY4" s="36"/>
-      <c r="FZ4" s="36"/>
-      <c r="GA4" s="36"/>
-      <c r="GB4" s="36"/>
-      <c r="GC4" s="36"/>
-      <c r="GD4" s="36"/>
-      <c r="GE4" s="36"/>
-      <c r="GF4" s="36"/>
-      <c r="GG4" s="36"/>
-      <c r="GH4" s="36"/>
-      <c r="GI4" s="36"/>
-      <c r="GJ4" s="36"/>
-      <c r="GK4" s="36"/>
-      <c r="GL4" s="36"/>
-      <c r="GM4" s="36"/>
-      <c r="GN4" s="36"/>
-      <c r="GO4" s="36"/>
-      <c r="GP4" s="36"/>
-      <c r="GQ4" s="36"/>
-      <c r="GR4" s="36"/>
-      <c r="GS4" s="36"/>
-      <c r="GT4" s="36"/>
-      <c r="GU4" s="36"/>
-      <c r="GV4" s="36"/>
-      <c r="GW4" s="36"/>
-      <c r="GX4" s="36"/>
-      <c r="GY4" s="36"/>
-      <c r="GZ4" s="36"/>
-      <c r="HA4" s="36"/>
-      <c r="HB4" s="36"/>
-      <c r="HC4" s="36"/>
-      <c r="HD4" s="36"/>
-      <c r="HE4" s="36"/>
-      <c r="HF4" s="36"/>
-      <c r="HG4" s="36"/>
-      <c r="HH4" s="36"/>
-      <c r="HI4" s="36"/>
-      <c r="HJ4" s="36"/>
-      <c r="HK4" s="36"/>
-      <c r="HL4" s="36"/>
-      <c r="HM4" s="36"/>
-      <c r="HN4" s="36"/>
-      <c r="HO4" s="36"/>
-      <c r="HP4" s="36"/>
-      <c r="HQ4" s="36"/>
-      <c r="HR4" s="36"/>
-      <c r="HS4" s="36"/>
-      <c r="HT4" s="36"/>
-      <c r="HU4" s="36"/>
-      <c r="HV4" s="36"/>
-      <c r="HW4" s="36"/>
-      <c r="HX4" s="36"/>
-      <c r="HY4" s="36"/>
-      <c r="HZ4" s="36"/>
-      <c r="IA4" s="36"/>
-      <c r="IB4" s="36"/>
-      <c r="IC4" s="36"/>
-      <c r="ID4" s="36"/>
-      <c r="IE4" s="36"/>
-      <c r="IF4" s="36"/>
-      <c r="IG4" s="36"/>
-      <c r="IH4" s="36"/>
-      <c r="II4" s="36"/>
-      <c r="IJ4" s="36"/>
-      <c r="IK4" s="36"/>
-      <c r="IL4" s="36"/>
-      <c r="IM4" s="36"/>
-      <c r="IN4" s="36"/>
-      <c r="IO4" s="36"/>
-      <c r="IP4" s="36"/>
-      <c r="IQ4" s="36"/>
-      <c r="IR4" s="36"/>
-      <c r="IS4" s="36"/>
-      <c r="IT4" s="36"/>
-      <c r="IU4" s="36"/>
-      <c r="IV4" s="36"/>
-      <c r="IW4" s="36"/>
-      <c r="IX4" s="36"/>
-    </row>
-    <row r="5" spans="1:258" ht="44.1" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:258" ht="96" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:258" ht="158.1" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:258" ht="72">
-      <c r="A8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:258" ht="122.1" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:258" ht="122.1" customHeight="1">
-      <c r="A10" s="45" t="s">
+    <row r="19" ht="80.1" customHeight="1" spans="1:258">
+      <c r="A19" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:258" ht="129" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:258" ht="110.1" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:258" ht="110.1" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:258" ht="54" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:258" ht="168.95" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:258" ht="22.35" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:258" ht="51">
-      <c r="A17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:258" ht="35.450000000000003" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:258" ht="80.099999999999994" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="IX19"/>
     </row>
-    <row r="20" spans="1:258" ht="93.95" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+    <row r="20" ht="93.95" customHeight="1" spans="1:258">
+      <c r="A20" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="IX20"/>
     </row>
-    <row r="21" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://mall.xinwenyifuxing.com/mallapp" tooltip="http://mall.xinwenyifuxing.com/mallapp"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777777777777801" footer="0.27777777777777801"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId2"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" scale="31" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/utils/家政小程序接口(2).xlsx
+++ b/utils/家政小程序接口(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="23640" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 小程序接口文档" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>微信：</t>
     </r>
     <r>
@@ -142,6 +147,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>套餐</t>
     </r>
     <r>
@@ -243,6 +254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>套餐</t>
     </r>
     <r>
@@ -340,6 +357,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">服务日期 </t>
     </r>
     <r>
@@ -625,7 +648,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>id</t>
+      <t xml:space="preserve">id                        remark </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注信息</t>
     </r>
   </si>
   <si>
@@ -799,6 +831,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户</t>
     </r>
     <r>
@@ -904,12 +942,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -993,18 +1031,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1016,11 +1042,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1030,9 +1057,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,14 +1110,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,25 +1131,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1094,53 +1144,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1159,6 +1162,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1166,29 +1170,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1225,6 +1227,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1237,7 +1269,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,19 +1299,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,7 +1335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,109 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,12 +1408,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,6 +1564,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1572,6 +1589,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,17 +1635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1620,41 +1650,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,152 +1665,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1881,43 +1883,37 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1926,19 +1922,13 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3126,11 +3116,11 @@
   <dimension ref="A1:IX30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="20.1" customHeight="1"/>
@@ -3216,254 +3206,254 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48"/>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48"/>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48"/>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48"/>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48"/>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48"/>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48"/>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48"/>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48"/>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48"/>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48"/>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
-      <c r="ED4" s="48"/>
-      <c r="EE4" s="48"/>
-      <c r="EF4" s="48"/>
-      <c r="EG4" s="48"/>
-      <c r="EH4" s="48"/>
-      <c r="EI4" s="48"/>
-      <c r="EJ4" s="48"/>
-      <c r="EK4" s="48"/>
-      <c r="EL4" s="48"/>
-      <c r="EM4" s="48"/>
-      <c r="EN4" s="48"/>
-      <c r="EO4" s="48"/>
-      <c r="EP4" s="48"/>
-      <c r="EQ4" s="48"/>
-      <c r="ER4" s="48"/>
-      <c r="ES4" s="48"/>
-      <c r="ET4" s="48"/>
-      <c r="EU4" s="48"/>
-      <c r="EV4" s="48"/>
-      <c r="EW4" s="48"/>
-      <c r="EX4" s="48"/>
-      <c r="EY4" s="48"/>
-      <c r="EZ4" s="48"/>
-      <c r="FA4" s="48"/>
-      <c r="FB4" s="48"/>
-      <c r="FC4" s="48"/>
-      <c r="FD4" s="48"/>
-      <c r="FE4" s="48"/>
-      <c r="FF4" s="48"/>
-      <c r="FG4" s="48"/>
-      <c r="FH4" s="48"/>
-      <c r="FI4" s="48"/>
-      <c r="FJ4" s="48"/>
-      <c r="FK4" s="48"/>
-      <c r="FL4" s="48"/>
-      <c r="FM4" s="48"/>
-      <c r="FN4" s="48"/>
-      <c r="FO4" s="48"/>
-      <c r="FP4" s="48"/>
-      <c r="FQ4" s="48"/>
-      <c r="FR4" s="48"/>
-      <c r="FS4" s="48"/>
-      <c r="FT4" s="48"/>
-      <c r="FU4" s="48"/>
-      <c r="FV4" s="48"/>
-      <c r="FW4" s="48"/>
-      <c r="FX4" s="48"/>
-      <c r="FY4" s="48"/>
-      <c r="FZ4" s="48"/>
-      <c r="GA4" s="48"/>
-      <c r="GB4" s="48"/>
-      <c r="GC4" s="48"/>
-      <c r="GD4" s="48"/>
-      <c r="GE4" s="48"/>
-      <c r="GF4" s="48"/>
-      <c r="GG4" s="48"/>
-      <c r="GH4" s="48"/>
-      <c r="GI4" s="48"/>
-      <c r="GJ4" s="48"/>
-      <c r="GK4" s="48"/>
-      <c r="GL4" s="48"/>
-      <c r="GM4" s="48"/>
-      <c r="GN4" s="48"/>
-      <c r="GO4" s="48"/>
-      <c r="GP4" s="48"/>
-      <c r="GQ4" s="48"/>
-      <c r="GR4" s="48"/>
-      <c r="GS4" s="48"/>
-      <c r="GT4" s="48"/>
-      <c r="GU4" s="48"/>
-      <c r="GV4" s="48"/>
-      <c r="GW4" s="48"/>
-      <c r="GX4" s="48"/>
-      <c r="GY4" s="48"/>
-      <c r="GZ4" s="48"/>
-      <c r="HA4" s="48"/>
-      <c r="HB4" s="48"/>
-      <c r="HC4" s="48"/>
-      <c r="HD4" s="48"/>
-      <c r="HE4" s="48"/>
-      <c r="HF4" s="48"/>
-      <c r="HG4" s="48"/>
-      <c r="HH4" s="48"/>
-      <c r="HI4" s="48"/>
-      <c r="HJ4" s="48"/>
-      <c r="HK4" s="48"/>
-      <c r="HL4" s="48"/>
-      <c r="HM4" s="48"/>
-      <c r="HN4" s="48"/>
-      <c r="HO4" s="48"/>
-      <c r="HP4" s="48"/>
-      <c r="HQ4" s="48"/>
-      <c r="HR4" s="48"/>
-      <c r="HS4" s="48"/>
-      <c r="HT4" s="48"/>
-      <c r="HU4" s="48"/>
-      <c r="HV4" s="48"/>
-      <c r="HW4" s="48"/>
-      <c r="HX4" s="48"/>
-      <c r="HY4" s="48"/>
-      <c r="HZ4" s="48"/>
-      <c r="IA4" s="48"/>
-      <c r="IB4" s="48"/>
-      <c r="IC4" s="48"/>
-      <c r="ID4" s="48"/>
-      <c r="IE4" s="48"/>
-      <c r="IF4" s="48"/>
-      <c r="IG4" s="48"/>
-      <c r="IH4" s="48"/>
-      <c r="II4" s="48"/>
-      <c r="IJ4" s="48"/>
-      <c r="IK4" s="48"/>
-      <c r="IL4" s="48"/>
-      <c r="IM4" s="48"/>
-      <c r="IN4" s="48"/>
-      <c r="IO4" s="48"/>
-      <c r="IP4" s="48"/>
-      <c r="IQ4" s="48"/>
-      <c r="IR4" s="48"/>
-      <c r="IS4" s="48"/>
-      <c r="IT4" s="48"/>
-      <c r="IU4" s="48"/>
-      <c r="IV4" s="48"/>
-      <c r="IW4" s="48"/>
-      <c r="IX4" s="48"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="44"/>
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="44"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="44"/>
+      <c r="BU4" s="44"/>
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="44"/>
+      <c r="BZ4" s="44"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="44"/>
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="44"/>
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
+      <c r="CL4" s="44"/>
+      <c r="CM4" s="44"/>
+      <c r="CN4" s="44"/>
+      <c r="CO4" s="44"/>
+      <c r="CP4" s="44"/>
+      <c r="CQ4" s="44"/>
+      <c r="CR4" s="44"/>
+      <c r="CS4" s="44"/>
+      <c r="CT4" s="44"/>
+      <c r="CU4" s="44"/>
+      <c r="CV4" s="44"/>
+      <c r="CW4" s="44"/>
+      <c r="CX4" s="44"/>
+      <c r="CY4" s="44"/>
+      <c r="CZ4" s="44"/>
+      <c r="DA4" s="44"/>
+      <c r="DB4" s="44"/>
+      <c r="DC4" s="44"/>
+      <c r="DD4" s="44"/>
+      <c r="DE4" s="44"/>
+      <c r="DF4" s="44"/>
+      <c r="DG4" s="44"/>
+      <c r="DH4" s="44"/>
+      <c r="DI4" s="44"/>
+      <c r="DJ4" s="44"/>
+      <c r="DK4" s="44"/>
+      <c r="DL4" s="44"/>
+      <c r="DM4" s="44"/>
+      <c r="DN4" s="44"/>
+      <c r="DO4" s="44"/>
+      <c r="DP4" s="44"/>
+      <c r="DQ4" s="44"/>
+      <c r="DR4" s="44"/>
+      <c r="DS4" s="44"/>
+      <c r="DT4" s="44"/>
+      <c r="DU4" s="44"/>
+      <c r="DV4" s="44"/>
+      <c r="DW4" s="44"/>
+      <c r="DX4" s="44"/>
+      <c r="DY4" s="44"/>
+      <c r="DZ4" s="44"/>
+      <c r="EA4" s="44"/>
+      <c r="EB4" s="44"/>
+      <c r="EC4" s="44"/>
+      <c r="ED4" s="44"/>
+      <c r="EE4" s="44"/>
+      <c r="EF4" s="44"/>
+      <c r="EG4" s="44"/>
+      <c r="EH4" s="44"/>
+      <c r="EI4" s="44"/>
+      <c r="EJ4" s="44"/>
+      <c r="EK4" s="44"/>
+      <c r="EL4" s="44"/>
+      <c r="EM4" s="44"/>
+      <c r="EN4" s="44"/>
+      <c r="EO4" s="44"/>
+      <c r="EP4" s="44"/>
+      <c r="EQ4" s="44"/>
+      <c r="ER4" s="44"/>
+      <c r="ES4" s="44"/>
+      <c r="ET4" s="44"/>
+      <c r="EU4" s="44"/>
+      <c r="EV4" s="44"/>
+      <c r="EW4" s="44"/>
+      <c r="EX4" s="44"/>
+      <c r="EY4" s="44"/>
+      <c r="EZ4" s="44"/>
+      <c r="FA4" s="44"/>
+      <c r="FB4" s="44"/>
+      <c r="FC4" s="44"/>
+      <c r="FD4" s="44"/>
+      <c r="FE4" s="44"/>
+      <c r="FF4" s="44"/>
+      <c r="FG4" s="44"/>
+      <c r="FH4" s="44"/>
+      <c r="FI4" s="44"/>
+      <c r="FJ4" s="44"/>
+      <c r="FK4" s="44"/>
+      <c r="FL4" s="44"/>
+      <c r="FM4" s="44"/>
+      <c r="FN4" s="44"/>
+      <c r="FO4" s="44"/>
+      <c r="FP4" s="44"/>
+      <c r="FQ4" s="44"/>
+      <c r="FR4" s="44"/>
+      <c r="FS4" s="44"/>
+      <c r="FT4" s="44"/>
+      <c r="FU4" s="44"/>
+      <c r="FV4" s="44"/>
+      <c r="FW4" s="44"/>
+      <c r="FX4" s="44"/>
+      <c r="FY4" s="44"/>
+      <c r="FZ4" s="44"/>
+      <c r="GA4" s="44"/>
+      <c r="GB4" s="44"/>
+      <c r="GC4" s="44"/>
+      <c r="GD4" s="44"/>
+      <c r="GE4" s="44"/>
+      <c r="GF4" s="44"/>
+      <c r="GG4" s="44"/>
+      <c r="GH4" s="44"/>
+      <c r="GI4" s="44"/>
+      <c r="GJ4" s="44"/>
+      <c r="GK4" s="44"/>
+      <c r="GL4" s="44"/>
+      <c r="GM4" s="44"/>
+      <c r="GN4" s="44"/>
+      <c r="GO4" s="44"/>
+      <c r="GP4" s="44"/>
+      <c r="GQ4" s="44"/>
+      <c r="GR4" s="44"/>
+      <c r="GS4" s="44"/>
+      <c r="GT4" s="44"/>
+      <c r="GU4" s="44"/>
+      <c r="GV4" s="44"/>
+      <c r="GW4" s="44"/>
+      <c r="GX4" s="44"/>
+      <c r="GY4" s="44"/>
+      <c r="GZ4" s="44"/>
+      <c r="HA4" s="44"/>
+      <c r="HB4" s="44"/>
+      <c r="HC4" s="44"/>
+      <c r="HD4" s="44"/>
+      <c r="HE4" s="44"/>
+      <c r="HF4" s="44"/>
+      <c r="HG4" s="44"/>
+      <c r="HH4" s="44"/>
+      <c r="HI4" s="44"/>
+      <c r="HJ4" s="44"/>
+      <c r="HK4" s="44"/>
+      <c r="HL4" s="44"/>
+      <c r="HM4" s="44"/>
+      <c r="HN4" s="44"/>
+      <c r="HO4" s="44"/>
+      <c r="HP4" s="44"/>
+      <c r="HQ4" s="44"/>
+      <c r="HR4" s="44"/>
+      <c r="HS4" s="44"/>
+      <c r="HT4" s="44"/>
+      <c r="HU4" s="44"/>
+      <c r="HV4" s="44"/>
+      <c r="HW4" s="44"/>
+      <c r="HX4" s="44"/>
+      <c r="HY4" s="44"/>
+      <c r="HZ4" s="44"/>
+      <c r="IA4" s="44"/>
+      <c r="IB4" s="44"/>
+      <c r="IC4" s="44"/>
+      <c r="ID4" s="44"/>
+      <c r="IE4" s="44"/>
+      <c r="IF4" s="44"/>
+      <c r="IG4" s="44"/>
+      <c r="IH4" s="44"/>
+      <c r="II4" s="44"/>
+      <c r="IJ4" s="44"/>
+      <c r="IK4" s="44"/>
+      <c r="IL4" s="44"/>
+      <c r="IM4" s="44"/>
+      <c r="IN4" s="44"/>
+      <c r="IO4" s="44"/>
+      <c r="IP4" s="44"/>
+      <c r="IQ4" s="44"/>
+      <c r="IR4" s="44"/>
+      <c r="IS4" s="44"/>
+      <c r="IT4" s="44"/>
+      <c r="IU4" s="44"/>
+      <c r="IV4" s="44"/>
+      <c r="IW4" s="44"/>
+      <c r="IX4" s="44"/>
     </row>
     <row r="5" ht="44.1" customHeight="1" spans="1:10">
       <c r="A5" s="17" t="s">
@@ -3511,10 +3501,10 @@
       <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -3530,19 +3520,19 @@
       <c r="J7" s="27"/>
     </row>
     <row r="8" ht="72" spans="1:10">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="27"/>
@@ -3552,17 +3542,17 @@
       <c r="J8" s="27"/>
     </row>
     <row r="9" ht="122.1" customHeight="1" spans="1:10">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="27"/>
@@ -3572,19 +3562,19 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" ht="122.1" customHeight="1" spans="1:10">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -3592,19 +3582,19 @@
       <c r="J10" s="27"/>
     </row>
     <row r="11" ht="129" customHeight="1" spans="1:10">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="27"/>
@@ -3614,10 +3604,10 @@
       <c r="J11" s="27"/>
     </row>
     <row r="12" ht="110.1" customHeight="1" spans="1:10">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -3636,19 +3626,19 @@
       <c r="J12" s="27"/>
     </row>
     <row r="13" ht="168" customHeight="1" spans="1:10">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="27"/>
@@ -3658,10 +3648,10 @@
       <c r="J13" s="27"/>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:10">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -3675,13 +3665,13 @@
       <c r="A15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -3697,7 +3687,7 @@
       <c r="A16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -3714,10 +3704,10 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" ht="51" spans="1:10">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -3736,16 +3726,16 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" ht="35.45" customHeight="1" spans="1:10">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="30" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="27"/>
@@ -3756,10 +3746,10 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" ht="80.1" customHeight="1" spans="1:258">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -3778,10 +3768,10 @@
       <c r="IX19"/>
     </row>
     <row r="20" ht="93.95" customHeight="1" spans="1:258">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="40" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -3790,7 +3780,7 @@
       <c r="D20" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="38" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="27"/>
@@ -3800,8 +3790,8 @@
       <c r="IX20"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -3812,8 +3802,8 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -3824,8 +3814,8 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -3836,8 +3826,8 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -3848,8 +3838,8 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -3860,8 +3850,8 @@
       <c r="J25" s="27"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -3872,8 +3862,8 @@
       <c r="J26" s="27"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -3884,8 +3874,8 @@
       <c r="J27" s="27"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -3896,8 +3886,8 @@
       <c r="J28" s="27"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -3908,8 +3898,8 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>

--- a/utils/家政小程序接口(2).xlsx
+++ b/utils/家政小程序接口(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="23640" windowHeight="10140"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 小程序接口文档" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>小程序接口文档</t>
   </si>
@@ -179,12 +179,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>类型</t>
     </r>
     <r>
@@ -254,12 +248,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>套餐</t>
     </r>
     <r>
@@ -286,12 +274,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>商品</t>
     </r>
     <r>
@@ -310,6 +292,83 @@
 goods_pic  商品图片  string
 goods_id  商品id string
 goods_detail  商品详情 string</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">goods_pic  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  string   goods_name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> string goods_price  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  string  goods_detail  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> string</t>
+    </r>
   </si>
   <si>
     <t>添加服务地址</t>
@@ -396,12 +455,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>联系人：</t>
     </r>
     <r>
@@ -506,8 +559,53 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>IS_DEFAULT
-服务地址id：ADDRESS_ID （必填，其他非必填）</t>
+      <t xml:space="preserve">IS_DEFAULT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ADDRESS_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（必填，其他非必填）</t>
     </r>
   </si>
   <si>
@@ -523,29 +621,286 @@
     <t>查询条件:status 0未使用 1已使用 2已过期</t>
   </si>
   <si>
-    <t>coupon_rebate 折扣几折
-coupon_id 优惠券id
-user_id 用户id
-starttime 开始时间
-endtime  结束时间
-coupon_name 优惠券名称
-use_price  满500-100的500
-coupon_price 满500-100的100
-coupon_type 1折扣2现金
-status 0使用1已使用
-addtime 添加时间</t>
+    <r>
+      <t xml:space="preserve">coupon_rebate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折扣几折</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+coupon_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id
+user_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id
+starttime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+endtime  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+coupon_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠券名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+use_price  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500-100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">500
+coupon_price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500-100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100
+coupon_type 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折扣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+addtime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加时间</t>
+    </r>
   </si>
   <si>
     <t>下单</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>服务下单接口</t>
     </r>
     <r>
@@ -568,7 +923,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -578,7 +933,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -587,7 +942,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -597,7 +952,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -606,7 +961,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -616,7 +971,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -625,7 +980,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -635,7 +990,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -644,7 +999,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -653,7 +1008,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -662,12 +1017,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>{
     "return_pay": {
         "timeStamp": "1545307852",
@@ -776,17 +1125,298 @@
     </r>
   </si>
   <si>
-    <t>addr_phone  订单电话
-order_total 订单实付
-goods_id 服务id
-order_id 订单id
-goods_name 商品名字
-service_time 服务时间
-goods_pic 商品图片
-service_count 服务次数，大于0代表是多次服务
-addr_realname 地址姓名
-coupon_price 优惠的金额
-status 0默认待付款状态 1已付款(服务中) 2已完成 3已取消</t>
+    <r>
+      <t xml:space="preserve">addr_phone  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+order_total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单实付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+goods_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id
+order_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id
+goods_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品名字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+service_time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+goods_pic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+service_count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务次数，大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表是多次服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+addr_realname </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+coupon_price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠的金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认待付款状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已取消</t>
+    </r>
   </si>
   <si>
     <t>已付款订单，服务记录列表</t>
@@ -947,7 +1577,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1042,18 +1672,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,27 +1696,87 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,46 +1790,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1156,7 +1807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,30 +1815,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,6 +1839,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1227,31 +1875,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,61 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,55 +1917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1941,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +2043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,17 +2211,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,15 +2255,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1619,9 +2276,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,183 +2308,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1895,6 +2543,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1904,7 +2555,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1919,22 +2570,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2066,6 +2708,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3116,11 +3761,11 @@
   <dimension ref="A1:IX30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="20.1" customHeight="1"/>
@@ -3206,254 +3851,254 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="44"/>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="44"/>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="44"/>
-      <c r="CL4" s="44"/>
-      <c r="CM4" s="44"/>
-      <c r="CN4" s="44"/>
-      <c r="CO4" s="44"/>
-      <c r="CP4" s="44"/>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="44"/>
-      <c r="CS4" s="44"/>
-      <c r="CT4" s="44"/>
-      <c r="CU4" s="44"/>
-      <c r="CV4" s="44"/>
-      <c r="CW4" s="44"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="44"/>
-      <c r="CZ4" s="44"/>
-      <c r="DA4" s="44"/>
-      <c r="DB4" s="44"/>
-      <c r="DC4" s="44"/>
-      <c r="DD4" s="44"/>
-      <c r="DE4" s="44"/>
-      <c r="DF4" s="44"/>
-      <c r="DG4" s="44"/>
-      <c r="DH4" s="44"/>
-      <c r="DI4" s="44"/>
-      <c r="DJ4" s="44"/>
-      <c r="DK4" s="44"/>
-      <c r="DL4" s="44"/>
-      <c r="DM4" s="44"/>
-      <c r="DN4" s="44"/>
-      <c r="DO4" s="44"/>
-      <c r="DP4" s="44"/>
-      <c r="DQ4" s="44"/>
-      <c r="DR4" s="44"/>
-      <c r="DS4" s="44"/>
-      <c r="DT4" s="44"/>
-      <c r="DU4" s="44"/>
-      <c r="DV4" s="44"/>
-      <c r="DW4" s="44"/>
-      <c r="DX4" s="44"/>
-      <c r="DY4" s="44"/>
-      <c r="DZ4" s="44"/>
-      <c r="EA4" s="44"/>
-      <c r="EB4" s="44"/>
-      <c r="EC4" s="44"/>
-      <c r="ED4" s="44"/>
-      <c r="EE4" s="44"/>
-      <c r="EF4" s="44"/>
-      <c r="EG4" s="44"/>
-      <c r="EH4" s="44"/>
-      <c r="EI4" s="44"/>
-      <c r="EJ4" s="44"/>
-      <c r="EK4" s="44"/>
-      <c r="EL4" s="44"/>
-      <c r="EM4" s="44"/>
-      <c r="EN4" s="44"/>
-      <c r="EO4" s="44"/>
-      <c r="EP4" s="44"/>
-      <c r="EQ4" s="44"/>
-      <c r="ER4" s="44"/>
-      <c r="ES4" s="44"/>
-      <c r="ET4" s="44"/>
-      <c r="EU4" s="44"/>
-      <c r="EV4" s="44"/>
-      <c r="EW4" s="44"/>
-      <c r="EX4" s="44"/>
-      <c r="EY4" s="44"/>
-      <c r="EZ4" s="44"/>
-      <c r="FA4" s="44"/>
-      <c r="FB4" s="44"/>
-      <c r="FC4" s="44"/>
-      <c r="FD4" s="44"/>
-      <c r="FE4" s="44"/>
-      <c r="FF4" s="44"/>
-      <c r="FG4" s="44"/>
-      <c r="FH4" s="44"/>
-      <c r="FI4" s="44"/>
-      <c r="FJ4" s="44"/>
-      <c r="FK4" s="44"/>
-      <c r="FL4" s="44"/>
-      <c r="FM4" s="44"/>
-      <c r="FN4" s="44"/>
-      <c r="FO4" s="44"/>
-      <c r="FP4" s="44"/>
-      <c r="FQ4" s="44"/>
-      <c r="FR4" s="44"/>
-      <c r="FS4" s="44"/>
-      <c r="FT4" s="44"/>
-      <c r="FU4" s="44"/>
-      <c r="FV4" s="44"/>
-      <c r="FW4" s="44"/>
-      <c r="FX4" s="44"/>
-      <c r="FY4" s="44"/>
-      <c r="FZ4" s="44"/>
-      <c r="GA4" s="44"/>
-      <c r="GB4" s="44"/>
-      <c r="GC4" s="44"/>
-      <c r="GD4" s="44"/>
-      <c r="GE4" s="44"/>
-      <c r="GF4" s="44"/>
-      <c r="GG4" s="44"/>
-      <c r="GH4" s="44"/>
-      <c r="GI4" s="44"/>
-      <c r="GJ4" s="44"/>
-      <c r="GK4" s="44"/>
-      <c r="GL4" s="44"/>
-      <c r="GM4" s="44"/>
-      <c r="GN4" s="44"/>
-      <c r="GO4" s="44"/>
-      <c r="GP4" s="44"/>
-      <c r="GQ4" s="44"/>
-      <c r="GR4" s="44"/>
-      <c r="GS4" s="44"/>
-      <c r="GT4" s="44"/>
-      <c r="GU4" s="44"/>
-      <c r="GV4" s="44"/>
-      <c r="GW4" s="44"/>
-      <c r="GX4" s="44"/>
-      <c r="GY4" s="44"/>
-      <c r="GZ4" s="44"/>
-      <c r="HA4" s="44"/>
-      <c r="HB4" s="44"/>
-      <c r="HC4" s="44"/>
-      <c r="HD4" s="44"/>
-      <c r="HE4" s="44"/>
-      <c r="HF4" s="44"/>
-      <c r="HG4" s="44"/>
-      <c r="HH4" s="44"/>
-      <c r="HI4" s="44"/>
-      <c r="HJ4" s="44"/>
-      <c r="HK4" s="44"/>
-      <c r="HL4" s="44"/>
-      <c r="HM4" s="44"/>
-      <c r="HN4" s="44"/>
-      <c r="HO4" s="44"/>
-      <c r="HP4" s="44"/>
-      <c r="HQ4" s="44"/>
-      <c r="HR4" s="44"/>
-      <c r="HS4" s="44"/>
-      <c r="HT4" s="44"/>
-      <c r="HU4" s="44"/>
-      <c r="HV4" s="44"/>
-      <c r="HW4" s="44"/>
-      <c r="HX4" s="44"/>
-      <c r="HY4" s="44"/>
-      <c r="HZ4" s="44"/>
-      <c r="IA4" s="44"/>
-      <c r="IB4" s="44"/>
-      <c r="IC4" s="44"/>
-      <c r="ID4" s="44"/>
-      <c r="IE4" s="44"/>
-      <c r="IF4" s="44"/>
-      <c r="IG4" s="44"/>
-      <c r="IH4" s="44"/>
-      <c r="II4" s="44"/>
-      <c r="IJ4" s="44"/>
-      <c r="IK4" s="44"/>
-      <c r="IL4" s="44"/>
-      <c r="IM4" s="44"/>
-      <c r="IN4" s="44"/>
-      <c r="IO4" s="44"/>
-      <c r="IP4" s="44"/>
-      <c r="IQ4" s="44"/>
-      <c r="IR4" s="44"/>
-      <c r="IS4" s="44"/>
-      <c r="IT4" s="44"/>
-      <c r="IU4" s="44"/>
-      <c r="IV4" s="44"/>
-      <c r="IW4" s="44"/>
-      <c r="IX4" s="44"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="42"/>
+      <c r="CM4" s="42"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="42"/>
+      <c r="DB4" s="42"/>
+      <c r="DC4" s="42"/>
+      <c r="DD4" s="42"/>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="42"/>
+      <c r="DG4" s="42"/>
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="42"/>
+      <c r="DJ4" s="42"/>
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="42"/>
+      <c r="DR4" s="42"/>
+      <c r="DS4" s="42"/>
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="42"/>
+      <c r="DV4" s="42"/>
+      <c r="DW4" s="42"/>
+      <c r="DX4" s="42"/>
+      <c r="DY4" s="42"/>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42"/>
+      <c r="EE4" s="42"/>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="42"/>
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="42"/>
+      <c r="EP4" s="42"/>
+      <c r="EQ4" s="42"/>
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="42"/>
+      <c r="EX4" s="42"/>
+      <c r="EY4" s="42"/>
+      <c r="EZ4" s="42"/>
+      <c r="FA4" s="42"/>
+      <c r="FB4" s="42"/>
+      <c r="FC4" s="42"/>
+      <c r="FD4" s="42"/>
+      <c r="FE4" s="42"/>
+      <c r="FF4" s="42"/>
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="42"/>
+      <c r="FN4" s="42"/>
+      <c r="FO4" s="42"/>
+      <c r="FP4" s="42"/>
+      <c r="FQ4" s="42"/>
+      <c r="FR4" s="42"/>
+      <c r="FS4" s="42"/>
+      <c r="FT4" s="42"/>
+      <c r="FU4" s="42"/>
+      <c r="FV4" s="42"/>
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42"/>
+      <c r="GA4" s="42"/>
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="42"/>
+      <c r="GE4" s="42"/>
+      <c r="GF4" s="42"/>
+      <c r="GG4" s="42"/>
+      <c r="GH4" s="42"/>
+      <c r="GI4" s="42"/>
+      <c r="GJ4" s="42"/>
+      <c r="GK4" s="42"/>
+      <c r="GL4" s="42"/>
+      <c r="GM4" s="42"/>
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="42"/>
+      <c r="GT4" s="42"/>
+      <c r="GU4" s="42"/>
+      <c r="GV4" s="42"/>
+      <c r="GW4" s="42"/>
+      <c r="GX4" s="42"/>
+      <c r="GY4" s="42"/>
+      <c r="GZ4" s="42"/>
+      <c r="HA4" s="42"/>
+      <c r="HB4" s="42"/>
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="42"/>
+      <c r="HJ4" s="42"/>
+      <c r="HK4" s="42"/>
+      <c r="HL4" s="42"/>
+      <c r="HM4" s="42"/>
+      <c r="HN4" s="42"/>
+      <c r="HO4" s="42"/>
+      <c r="HP4" s="42"/>
+      <c r="HQ4" s="42"/>
+      <c r="HR4" s="42"/>
+      <c r="HS4" s="42"/>
+      <c r="HT4" s="42"/>
+      <c r="HU4" s="42"/>
+      <c r="HV4" s="42"/>
+      <c r="HW4" s="42"/>
+      <c r="HX4" s="42"/>
+      <c r="HY4" s="42"/>
+      <c r="HZ4" s="42"/>
+      <c r="IA4" s="42"/>
+      <c r="IB4" s="42"/>
+      <c r="IC4" s="42"/>
+      <c r="ID4" s="42"/>
+      <c r="IE4" s="42"/>
+      <c r="IF4" s="42"/>
+      <c r="IG4" s="42"/>
+      <c r="IH4" s="42"/>
+      <c r="II4" s="42"/>
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="42"/>
+      <c r="IU4" s="42"/>
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
     </row>
     <row r="5" ht="44.1" customHeight="1" spans="1:10">
       <c r="A5" s="17" t="s">
@@ -3513,27 +4158,29 @@
       <c r="E7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
     <row r="8" ht="72" spans="1:10">
-      <c r="A8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>31</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -3542,18 +4189,18 @@
       <c r="J8" s="27"/>
     </row>
     <row r="9" ht="122.1" customHeight="1" spans="1:10">
-      <c r="A9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="32" t="s">
         <v>33</v>
       </c>
+      <c r="B9" s="33" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33" t="s">
         <v>35</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -3562,19 +4209,19 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" ht="122.1" customHeight="1" spans="1:10">
-      <c r="A10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>36</v>
+      <c r="A10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="D10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -3582,20 +4229,20 @@
       <c r="J10" s="27"/>
     </row>
     <row r="11" ht="129" customHeight="1" spans="1:10">
-      <c r="A11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="B11" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>31</v>
+      <c r="D11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -3604,20 +4251,20 @@
       <c r="J11" s="27"/>
     </row>
     <row r="12" ht="110.1" customHeight="1" spans="1:10">
-      <c r="A12" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="29" t="s">
         <v>44</v>
       </c>
+      <c r="B12" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="27" t="s">
         <v>47</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -3625,21 +4272,21 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" ht="168" customHeight="1" spans="1:10">
-      <c r="A13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="36" t="s">
+    <row r="13" ht="234" customHeight="1" spans="1:10">
+      <c r="A13" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="B13" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="27" t="s">
         <v>52</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -3648,8 +4295,8 @@
       <c r="J13" s="27"/>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:10">
-      <c r="A14" s="28" t="s">
-        <v>53</v>
+      <c r="A14" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -3663,19 +4310,19 @@
     </row>
     <row r="15" ht="168.95" customHeight="1" spans="1:10">
       <c r="A15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="29" t="s">
         <v>55</v>
       </c>
+      <c r="B15" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>58</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -3685,16 +4332,16 @@
     </row>
     <row r="16" ht="22.35" customHeight="1" spans="1:10">
       <c r="A16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="35" t="s">
         <v>60</v>
       </c>
+      <c r="B16" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="C16" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -3704,20 +4351,20 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" ht="51" spans="1:10">
-      <c r="A17" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="29" t="s">
         <v>64</v>
       </c>
+      <c r="B17" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="C17" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -3726,17 +4373,17 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" ht="35.45" customHeight="1" spans="1:10">
-      <c r="A18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="29" t="s">
         <v>69</v>
       </c>
+      <c r="B18" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="30" t="s">
         <v>71</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -3746,20 +4393,20 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" ht="80.1" customHeight="1" spans="1:258">
-      <c r="A19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="38" t="s">
         <v>73</v>
       </c>
+      <c r="B19" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="C19" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -3768,20 +4415,20 @@
       <c r="IX19"/>
     </row>
     <row r="20" ht="93.95" customHeight="1" spans="1:258">
-      <c r="A20" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>77</v>
+      <c r="A20" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="38" t="s">
         <v>80</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
@@ -3790,8 +4437,8 @@
       <c r="IX20"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -3802,8 +4449,8 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -3814,8 +4461,8 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -3826,8 +4473,8 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -3838,8 +4485,8 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -3850,8 +4497,8 @@
       <c r="J25" s="27"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -3862,8 +4509,8 @@
       <c r="J26" s="27"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -3874,8 +4521,8 @@
       <c r="J27" s="27"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -3886,8 +4533,8 @@
       <c r="J28" s="27"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -3898,8 +4545,8 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>

--- a/utils/家政小程序接口(2).xlsx
+++ b/utils/家政小程序接口(2).xlsx
@@ -179,6 +179,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>类型</t>
     </r>
     <r>
@@ -248,6 +254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>套餐</t>
     </r>
     <r>
@@ -274,6 +286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>商品</t>
     </r>
     <r>
@@ -295,6 +313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">goods_pic  </t>
     </r>
     <r>
@@ -455,6 +479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>联系人：</t>
     </r>
     <r>
@@ -618,10 +648,72 @@
     <t>/usercoupon/list</t>
   </si>
   <si>
-    <t>查询条件:status 0未使用 1已使用 2已过期</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <t>查询条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:status 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已过期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">coupon_rebate </t>
     </r>
     <r>
@@ -901,6 +993,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>服务下单接口</t>
     </r>
     <r>
@@ -918,6 +1016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>商品</t>
     </r>
     <r>
@@ -1017,6 +1121,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
     "return_pay": {
         "timeStamp": "1545307852",
@@ -1126,6 +1236,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">addr_phone  </t>
     </r>
     <r>
@@ -1572,9 +1688,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -1679,67 +1795,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1753,38 +1809,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,16 +1839,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1826,6 +1874,74 @@
       <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1875,7 +1991,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,7 +2027,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,13 +2057,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,145 +2171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2211,6 +2327,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2237,24 +2368,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2270,17 +2388,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2308,153 +2415,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3761,11 +3877,11 @@
   <dimension ref="A1:IX30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="20.1" customHeight="1"/>
@@ -4260,7 +4376,7 @@
       <c r="C12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="31" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="28" t="s">

--- a/utils/家政小程序接口(2).xlsx
+++ b/utils/家政小程序接口(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 小程序接口文档" sheetId="1" r:id="rId1"/>
@@ -649,6 +649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>查询条件</t>
     </r>
     <r>
@@ -1016,13 +1022,26 @@
   </si>
   <si>
     <r>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id goods_id  string
+coupon_id </t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>商品</t>
+      <t>优惠券</t>
     </r>
     <r>
       <rPr>
@@ -1031,8 +1050,8 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">id goods_id  string
-coupon_id </t>
+      <t xml:space="preserve">id string
+address_id </t>
     </r>
     <r>
       <rPr>
@@ -1041,7 +1060,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>优惠券</t>
+      <t>地址</t>
     </r>
     <r>
       <rPr>
@@ -1051,7 +1070,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">id string
-address_id </t>
+service_time </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1079,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>地址</t>
+      <t>服务时间</t>
     </r>
     <r>
       <rPr>
@@ -1069,8 +1088,8 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">id string
-service_time </t>
+      <t xml:space="preserve"> 2018-11-15 12:30:00 string
+servicetime_id  </t>
     </r>
     <r>
       <rPr>
@@ -1079,7 +1098,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>服务时间</t>
+      <t>调用服务时间列表返回的</t>
     </r>
     <r>
       <rPr>
@@ -1088,31 +1107,12 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 2018-11-15 12:30:00 string
-servicetime_id  </t>
+      <t xml:space="preserve">id                        remark </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调用服务时间列表返回的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">id                        remark </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1121,12 +1121,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>{
     "return_pay": {
         "timeStamp": "1545307852",
@@ -1688,9 +1682,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -1797,11 +1791,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1809,23 +1816,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1839,15 +1838,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1869,9 +1862,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1886,22 +1926,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,37 +1936,6 @@
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1991,85 +1985,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,7 +2027,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,7 +2051,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,67 +2147,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2327,6 +2321,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2342,11 +2345,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2368,26 +2377,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2409,17 +2410,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2429,148 +2423,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3877,11 +3871,11 @@
   <dimension ref="A1:IX30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D9:D11"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="20.1" customHeight="1"/>
